--- a/manual_download/Berliner Bäder Betriebe/2018_Geschaeftsbericht_BBB.xlsx
+++ b/manual_download/Berliner Bäder Betriebe/2018_Geschaeftsbericht_BBB.xlsx
@@ -25,7 +25,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="A31" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Forderungen gegen Gewährträger</t>
         </r>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t xml:space="preserve">E1</t>
   </si>
@@ -168,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">Forderungen gegen Unternehmen, mit denen ein Beteiligungsverhaeltnis besteht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forderungen gegen Gewaehrtraeger</t>
   </si>
   <si>
     <t xml:space="preserve">Sonstige Vermoegensgegenstaende</t>
@@ -277,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,6 +296,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -425,10 +437,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,39 +758,39 @@
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="n">
+    </row>
+    <row r="24" s="7" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="n">
         <v>795053.85</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E24" s="7" t="n">
         <v>3360</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>1664320.51</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E25" s="2" t="n">
         <v>1301018.17</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,57 +798,68 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="2" t="n">
+    </row>
+    <row r="28" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>8898475.95</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E28" s="2" t="n">
         <v>7340115.11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>92387.45</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>118909.01</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="2" t="n">
+        <v>92387.45</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>118909.01</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="31" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="n">
+    </row>
+    <row r="32" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="n">
         <v>3591586.56</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E32" s="7" t="n">
         <v>4093770.74</v>
       </c>
     </row>
